--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_马丁组.xlsx
@@ -15,7 +15,7 @@
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -91,25 +91,7 @@
     <t>重要</t>
   </si>
   <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>查看空置房源</t>
-  </si>
-  <si>
-    <t>李亚林</t>
   </si>
   <si>
     <t>邵明基</t>
@@ -177,6 +159,18 @@
   <si>
     <t xml:space="preserve">子账号添加角色时偶尔插入其他渠道的角色
 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间朝向修改</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -856,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D5" sqref="D5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,7 +862,7 @@
     <col min="2" max="3" width="12.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="36.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="4" customWidth="1"/>
@@ -953,237 +947,239 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="31">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="35">
+        <v>42697</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="35">
+        <v>42697</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="35">
-        <v>42691</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="35">
-        <v>42691</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="13">
         <v>42697</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="R2" s="18">
+        <v>5250</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="25"/>
       <c r="V2" s="26"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="35">
         <v>42697</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J3" s="35">
         <v>42697</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P3" s="13">
         <v>42697</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="18">
-        <v>5250</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26"/>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31">
+        <v>34</v>
+      </c>
+      <c r="R3" s="27">
+        <v>5234</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H4" s="35">
         <v>42697</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J4" s="35">
         <v>42697</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P4" s="13">
         <v>42697</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="27">
-        <v>5234</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="28"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="35">
         <v>42697</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J5" s="35">
         <v>42697</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="36" t="s">
-        <v>39</v>
+      <c r="L5" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="M5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="36" t="s">
-        <v>29</v>
-      </c>
       <c r="O5" s="36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P5" s="13">
         <v>42697</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
@@ -1203,7 +1199,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1227,7 +1223,7 @@
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1238,10 +1234,10 @@
       <c r="H8" s="13"/>
       <c r="I8" s="11"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="20"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="20"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="20"/>
@@ -1251,7 +1247,7 @@
       <c r="U8" s="28"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1262,33 +1258,33 @@
       <c r="H9" s="13"/>
       <c r="I9" s="11"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="20"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="29"/>
-    </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26"/>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="14"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="13"/>
       <c r="K10" s="11"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="11"/>
       <c r="O10" s="20"/>
       <c r="P10" s="13"/>
@@ -1353,13 +1349,13 @@
       <c r="C13" s="9"/>
       <c r="D13" s="14"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="22"/>
       <c r="J13" s="13"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="12"/>
       <c r="N13" s="11"/>
       <c r="O13" s="20"/>
@@ -1383,7 +1379,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
       <c r="O14" s="20"/>
@@ -1399,16 +1395,16 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="11"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="20"/>
       <c r="P15" s="13"/>
@@ -1568,16 +1564,16 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="20"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="20"/>
@@ -1616,17 +1612,17 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="18"/>
@@ -1674,8 +1670,8 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="13"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
@@ -1708,9 +1704,9 @@
       <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="15"/>
       <c r="E28" s="18"/>
       <c r="F28" s="11"/>
@@ -1723,12 +1719,12 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="20"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
-      <c r="U28" s="25"/>
+      <c r="U28" s="30"/>
       <c r="V28" s="26"/>
     </row>
     <row r="29" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1755,10 +1751,10 @@
       <c r="U29" s="30"/>
       <c r="V29" s="26"/>
     </row>
-    <row r="30" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="15"/>
       <c r="E30" s="18"/>
       <c r="F30" s="11"/>
@@ -1772,12 +1768,11 @@
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="30"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="26"/>
+      <c r="U30" s="15"/>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
@@ -2890,7 +2885,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="18"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="19"/>
       <c r="I79" s="18"/>
       <c r="J79" s="19"/>
@@ -3021,13 +3016,13 @@
       <c r="T84" s="18"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="15"/>
       <c r="E85" s="18"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="19"/>
       <c r="I85" s="18"/>
@@ -4557,9 +4552,6 @@
       <c r="O151" s="18"/>
       <c r="P151" s="19"/>
       <c r="Q151" s="15"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
       <c r="U151" s="15"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.15">
@@ -5124,19 +5116,6 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="24"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
       <c r="O180" s="18"/>
       <c r="P180" s="19"/>
       <c r="Q180" s="15"/>
@@ -5151,7 +5130,6 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A182" s="18"/>
-      <c r="O182" s="18"/>
       <c r="P182" s="19"/>
       <c r="Q182" s="15"/>
       <c r="U182" s="15"/>
@@ -5164,7 +5142,6 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A184" s="18"/>
-      <c r="P184" s="19"/>
       <c r="Q184" s="15"/>
       <c r="U184" s="15"/>
     </row>
@@ -5173,13 +5150,8 @@
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A186" s="18"/>
-      <c r="Q186" s="15"/>
-      <c r="U186" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U10"/>
+  <autoFilter ref="A1:U9"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
